--- a/P09/full_credit/Scrum_SMART_sprint_4_rev_1.xlsx
+++ b/P09/full_credit/Scrum_SMART_sprint_4_rev_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesdeleon/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesdeleon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAB8235-2763-8746-A2B1-574C11ED1A97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93032EF8-69A9-2F40-86E3-9A4C35460769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24960" windowHeight="15200" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23920" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="206">
   <si>
     <t>Project Name</t>
   </si>
@@ -657,12 +657,6 @@
   </si>
   <si>
     <t>Mainwin: Add logic to load v0.1 files (pre-courses/sections)</t>
-  </si>
-  <si>
-    <t>In Work</t>
-  </si>
-  <si>
-    <t>Completed Day 7</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1494,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -1649,7 +1643,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -1723,7 +1717,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -2442,7 +2436,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2541,7 +2535,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2585,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2665,7 +2659,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3599,8 +3593,8 @@
   </sheetPr>
   <dimension ref="A1:BL105"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5713,7 +5707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9221,8 +9215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9450,11 +9444,11 @@
       </c>
       <c r="B14" s="44">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14" s="44">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -9503,9 +9497,7 @@
       <c r="D17" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E17" s="56"/>
       <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9517,9 +9509,7 @@
       <c r="D18" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E18" s="56"/>
       <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9531,9 +9521,7 @@
       <c r="D19" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="E19" s="56"/>
       <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -9555,9 +9543,7 @@
       <c r="D21" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E21" s="56"/>
       <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9569,9 +9555,7 @@
       <c r="D22" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E22" s="56"/>
       <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9583,9 +9567,7 @@
       <c r="D23" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="E23" s="56"/>
       <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9597,9 +9579,7 @@
       <c r="D24" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="E24" s="56"/>
       <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -9621,9 +9601,7 @@
       <c r="D26" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E26" s="56"/>
       <c r="F26" s="57"/>
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9635,9 +9613,7 @@
       <c r="D27" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E27" s="56"/>
       <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9649,9 +9625,7 @@
       <c r="D28" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="E28" s="56"/>
       <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9663,9 +9637,7 @@
       <c r="D29" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="E29" s="56"/>
       <c r="F29" s="57"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -9687,9 +9659,7 @@
       <c r="D31" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E31" s="56"/>
       <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9701,9 +9671,7 @@
       <c r="D32" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E32" s="56"/>
       <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9715,9 +9683,7 @@
       <c r="D33" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="E33" s="56"/>
       <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9729,9 +9695,7 @@
       <c r="D34" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="56" t="s">
-        <v>206</v>
-      </c>
+      <c r="E34" s="56"/>
       <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -9753,9 +9717,7 @@
       <c r="D36" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E36" s="56"/>
       <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9767,9 +9729,7 @@
       <c r="D37" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E37" s="56"/>
       <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9781,9 +9741,7 @@
       <c r="D38" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E38" s="56"/>
       <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -9805,9 +9763,7 @@
       <c r="D40" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E40" s="56"/>
       <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -9819,9 +9775,7 @@
       <c r="D41" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="E41" s="56"/>
       <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -10485,8 +10439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
